--- a/branches/master/StructureDefinition-Requirement.xlsx
+++ b/branches/master/StructureDefinition-Requirement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T23:07:02+00:00</t>
+    <t>2023-03-17T11:12:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
